--- a/Data_science_outputs/1500pop/avg_analysis/avg_analysis_4.xlsx
+++ b/Data_science_outputs/1500pop/avg_analysis/avg_analysis_4.xlsx
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58378.62654791662</v>
+        <v>44694.22931324951</v>
       </c>
       <c r="C3" t="n">
         <v>34290.49506408725</v>
       </c>
       <c r="D3" t="n">
-        <v>12906.21193516364</v>
+        <v>2566.918741906393</v>
       </c>
       <c r="E3" t="n">
-        <v>11344.30055009702</v>
+        <v>7690.107310439496</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18536.52755778283</v>
+        <v>19209.18146037113</v>
       </c>
       <c r="C4" t="n">
         <v>17238.98821262486</v>
       </c>
       <c r="D4" t="n">
-        <v>11262.39188708898</v>
+        <v>1337.163928315268</v>
       </c>
       <c r="E4" t="n">
-        <v>6440.384845637751</v>
+        <v>3445.543304400405</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18714.07276164387</v>
+        <v>16160.40429589045</v>
       </c>
       <c r="C5" t="n">
         <v>10337.597</v>
       </c>
       <c r="D5" t="n">
-        <v>507.8404438356151</v>
+        <v>478.4026849315056</v>
       </c>
       <c r="E5" t="n">
-        <v>1954.122087671232</v>
+        <v>1992.98733150685</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -556,16 +556,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47684.49333219176</v>
+        <v>28966.08085068493</v>
       </c>
       <c r="C6" t="n">
         <v>21048.53371428572</v>
       </c>
       <c r="D6" t="n">
-        <v>1422.45758150685</v>
+        <v>1303.408328082193</v>
       </c>
       <c r="E6" t="n">
-        <v>4951.935374657533</v>
+        <v>4040.291458219175</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50897.74864520544</v>
+        <v>41860.85765479452</v>
       </c>
       <c r="C7" t="n">
         <v>28471.80942857143</v>
       </c>
       <c r="D7" t="n">
-        <v>12613.72398904111</v>
+        <v>2217.218943835618</v>
       </c>
       <c r="E7" t="n">
-        <v>10647.12583150684</v>
+        <v>7600.181989041095</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -598,16 +598,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78558.76527602726</v>
+        <v>58712.55744657514</v>
       </c>
       <c r="C8" t="n">
         <v>46369.87621428543</v>
       </c>
       <c r="D8" t="n">
-        <v>24856.67333630137</v>
+        <v>3737.860337671233</v>
       </c>
       <c r="E8" t="n">
-        <v>18468.03737123285</v>
+        <v>11401.70497465753</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88720.68695342414</v>
+        <v>80499.78310136932</v>
       </c>
       <c r="C9" t="n">
         <v>70124.94399999946</v>
       </c>
       <c r="D9" t="n">
-        <v>25890.76624931512</v>
+        <v>4796.593706849323</v>
       </c>
       <c r="E9" t="n">
-        <v>21581.79423287671</v>
+        <v>13288.28970410958</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>84065222.22899987</v>
+        <v>64359690.21107931</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>49378312.89228559</v>
       </c>
       <c r="G11" t="n">
-        <v>0.584599468688149</v>
+        <v>0.7705067027678848</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>18584945.18663564</v>
+        <v>3696362.988345208</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2210776905580393</v>
+        <v>0.05743288968952947</v>
       </c>
     </row>
     <row r="13">
@@ -693,10 +693,10 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>16335792.79213972</v>
+        <v>11073754.52703287</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1943228407538116</v>
+        <v>0.1720604075425858</v>
       </c>
     </row>
   </sheetData>
